--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2259.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2259.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167737511149479</v>
+        <v>1.009416460990906</v>
       </c>
       <c r="B1">
-        <v>2.26829164731379</v>
+        <v>2.797588348388672</v>
       </c>
       <c r="C1">
-        <v>6.342867437275491</v>
+        <v>5.228207111358643</v>
       </c>
       <c r="D1">
-        <v>2.543320609527878</v>
+        <v>2.099475622177124</v>
       </c>
       <c r="E1">
-        <v>1.209167821602116</v>
+        <v>1.17658531665802</v>
       </c>
     </row>
   </sheetData>
